--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74408.51088862534</v>
+        <v>-83643.15931633233</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.5916827</v>
+        <v>29520662.93214757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.9934074</v>
+        <v>14696419.30559702</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2062054.16417715</v>
+        <v>2277237.114178152</v>
       </c>
     </row>
     <row r="11">
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.4268935289279</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>386.0309950025953</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T24" t="n">
         <v>128.8768572327044</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C25" t="n">
-        <v>92.2311196057924</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>397.2087487807351</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>232.79575053631</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>84.21735615217479</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.5015152065393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>403.8643073193109</v>
       </c>
       <c r="E29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>373.7197913037078</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>67.65538200560648</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T33" t="n">
         <v>128.8768572327044</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>106.0626366504663</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>231.2375848836785</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>396.0716691005148</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>65.15134755984695</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>105.6472205425128</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C38" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>375.9790740437535</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T39" t="n">
         <v>128.8768572327044</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>41.26176538196644</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>60.30944613818192</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>320.4517931110355</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>376.6861762689736</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>141.3076780977018</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4144,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>156.2681271316377</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.0776450162207</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="C22" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D22" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E22" t="n">
-        <v>141.0776450162207</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F22" t="n">
         <v>33.94366860160834</v>
@@ -5917,7 +5919,7 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N22" t="n">
         <v>761.8145120199619</v>
@@ -5953,7 +5955,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1318.974446717864</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="C23" t="n">
-        <v>890.3927724551322</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="D23" t="n">
-        <v>461.8110981924006</v>
+        <v>851.7413961748201</v>
       </c>
       <c r="E23" t="n">
         <v>461.8110981924006</v>
@@ -6029,10 +6031,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6075,19 +6077,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M24" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N24" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="N24" t="n">
-        <v>857.0776321906106</v>
-      </c>
       <c r="O24" t="n">
-        <v>1277.130531135514</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
         <v>1697.183430080417</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>473.5714734656729</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
         <v>33.94366860160834</v>
@@ -6151,10 +6153,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M25" t="n">
-        <v>452.1535503695694</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N25" t="n">
         <v>761.8145120199619</v>
@@ -6175,22 +6177,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1410.227921950848</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W25" t="n">
-        <v>1138.201517537139</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X25" t="n">
-        <v>892.8097628705518</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.39009218466</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1292.327975491451</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C26" t="n">
-        <v>1292.327975491451</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D26" t="n">
-        <v>863.7463012287189</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E26" t="n">
-        <v>435.1646269659873</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G26" t="n">
         <v>33.94366860160834</v>
@@ -6230,19 +6232,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M26" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O26" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
-        <v>1294.102365436318</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6257,19 +6259,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W26" t="n">
-        <v>1292.327975491451</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X26" t="n">
-        <v>1292.327975491451</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="Y26" t="n">
-        <v>1292.327975491451</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="27">
@@ -6315,16 +6317,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N27" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O27" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q27" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R27" t="n">
         <v>1697.183430080417</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.00182921349</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="C28" t="n">
-        <v>940.4401176967148</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5621248982375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E28" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6391,7 +6393,7 @@
         <v>726.9120049407049</v>
       </c>
       <c r="M28" t="n">
-        <v>726.9120049407049</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N28" t="n">
         <v>930.0072868842942</v>
@@ -6409,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T28" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U28" t="n">
-        <v>1697.183430080417</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V28" t="n">
-        <v>1697.183430080417</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W28" t="n">
-        <v>1697.183430080417</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X28" t="n">
-        <v>1451.79167541383</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y28" t="n">
-        <v>1304.820447932477</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1697.183430080417</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.601755817686</v>
+        <v>869.7548429593813</v>
       </c>
       <c r="D29" t="n">
-        <v>840.020081554954</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E29" t="n">
-        <v>411.4384072922223</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6467,22 +6469,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O29" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P29" t="n">
-        <v>1294.102365436318</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q29" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6503,10 +6505,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.183430080417</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.183430080417</v>
+        <v>869.7548429593813</v>
       </c>
     </row>
     <row r="30">
@@ -6555,13 +6557,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O30" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P30" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q30" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R30" t="n">
         <v>1697.183430080417</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="C31" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="D31" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0776450162207</v>
       </c>
       <c r="E31" t="n">
         <v>33.94366860160834</v>
@@ -6625,46 +6627,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M31" t="n">
-        <v>453.9965675465116</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N31" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V31" t="n">
-        <v>864.4976534877803</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W31" t="n">
-        <v>592.4712490740719</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X31" t="n">
-        <v>347.0794944074844</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y31" t="n">
-        <v>119.6598237215927</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1697.183430080417</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="C32" t="n">
-        <v>1318.974446717864</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="D32" t="n">
-        <v>890.3927724551322</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="E32" t="n">
-        <v>461.8110981924006</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>102.2824383042412</v>
       </c>
       <c r="G32" t="n">
         <v>33.94366860160834</v>
@@ -6710,16 +6712,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>267.8706684926505</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P32" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q32" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
@@ -6734,16 +6736,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V32" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W32" t="n">
-        <v>1697.183430080417</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X32" t="n">
-        <v>1697.183430080417</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y32" t="n">
-        <v>1697.183430080417</v>
+        <v>102.2824383042412</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6770,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6786,19 +6788,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M33" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="N33" t="n">
-        <v>319.8519551513677</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O33" t="n">
-        <v>739.9048540962709</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P33" t="n">
-        <v>1159.957753041174</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q33" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R33" t="n">
         <v>1697.183430080417</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.0776450162207</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="C34" t="n">
-        <v>141.0776450162207</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D34" t="n">
-        <v>141.0776450162207</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E34" t="n">
-        <v>141.0776450162207</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G34" t="n">
         <v>33.94366860160834</v>
@@ -6865,13 +6867,13 @@
         <v>452.1535503695694</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P34" t="n">
         <v>1697.183430080417</v>
@@ -6892,16 +6894,16 @@
         <v>1172.870982911978</v>
       </c>
       <c r="V34" t="n">
-        <v>885.9154747824084</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W34" t="n">
-        <v>613.8890703687</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X34" t="n">
-        <v>368.4973157021125</v>
+        <v>939.2976648476563</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.0776450162207</v>
+        <v>711.8779941617646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>862.5977358951631</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C35" t="n">
-        <v>434.0160616324314</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D35" t="n">
-        <v>434.0160616324314</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E35" t="n">
-        <v>434.0160616324314</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6944,7 +6946,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N35" t="n">
         <v>267.8706684926505</v>
@@ -6977,10 +6979,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="Y35" t="n">
-        <v>1288.897306380071</v>
+        <v>1318.974446717864</v>
       </c>
     </row>
     <row r="36">
@@ -7026,16 +7028,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N36" t="n">
-        <v>453.9965675465116</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O36" t="n">
-        <v>874.0494664914149</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P36" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R36" t="n">
         <v>1697.183430080417</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>777.6874361414079</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C37" t="n">
-        <v>777.6874361414079</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D37" t="n">
-        <v>611.8094433429306</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E37" t="n">
-        <v>442.0514395936679</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3443855554241</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>99.75311058125175</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7096,13 +7098,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>726.9120049407049</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N37" t="n">
         <v>761.8145120199619</v>
@@ -7129,16 +7131,16 @@
         <v>1292.062614956869</v>
       </c>
       <c r="V37" t="n">
-        <v>1005.1071068273</v>
+        <v>1185.348250772513</v>
       </c>
       <c r="W37" t="n">
-        <v>1005.1071068273</v>
+        <v>913.3218463588046</v>
       </c>
       <c r="X37" t="n">
-        <v>1005.1071068273</v>
+        <v>913.3218463588046</v>
       </c>
       <c r="Y37" t="n">
-        <v>777.6874361414079</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>891.1070171270717</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C38" t="n">
-        <v>462.52534286434</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D38" t="n">
-        <v>462.52534286434</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E38" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F38" t="n">
         <v>33.94366860160834</v>
@@ -7178,22 +7180,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N38" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q38" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
@@ -7214,10 +7216,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X38" t="n">
-        <v>1317.406587611979</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y38" t="n">
-        <v>1317.406587611979</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="39">
@@ -7263,16 +7265,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N39" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O39" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P39" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q39" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R39" t="n">
         <v>1697.183430080417</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>760.5269815952424</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C40" t="n">
-        <v>587.9652700784674</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D40" t="n">
-        <v>422.0872772799901</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
-        <v>252.3292735307273</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7330,16 +7332,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>341.7616130750586</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L40" t="n">
-        <v>341.7616130750586</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M40" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N40" t="n">
         <v>761.8145120199619</v>
@@ -7360,22 +7362,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U40" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V40" t="n">
-        <v>1697.183430080417</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W40" t="n">
-        <v>1425.157025666709</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X40" t="n">
-        <v>1179.765271000121</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y40" t="n">
-        <v>952.3456003142296</v>
+        <v>552.97043790589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>890.3927724551322</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C41" t="n">
-        <v>890.3927724551322</v>
+        <v>646.762503068529</v>
       </c>
       <c r="D41" t="n">
-        <v>890.3927724551322</v>
+        <v>646.762503068529</v>
       </c>
       <c r="E41" t="n">
-        <v>461.8110981924006</v>
+        <v>646.762503068529</v>
       </c>
       <c r="F41" t="n">
-        <v>33.94366860160834</v>
+        <v>646.762503068529</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7442,19 +7444,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X41" t="n">
-        <v>1316.69234294004</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y41" t="n">
-        <v>1316.69234294004</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="42">
@@ -7467,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7476,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7497,19 +7499,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M42" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N42" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P42" t="n">
-        <v>1159.957753041174</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q42" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R42" t="n">
         <v>1697.183430080417</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="C43" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="D43" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="E43" t="n">
-        <v>33.94366860160834</v>
+        <v>176.6786969831253</v>
       </c>
       <c r="F43" t="n">
         <v>33.94366860160834</v>
@@ -7567,19 +7569,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M43" t="n">
-        <v>813.4916901053949</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N43" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7612,7 +7614,7 @@
         <v>368.4973157021125</v>
       </c>
       <c r="Y43" t="n">
-        <v>141.0776450162207</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>426.6952759415676</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>191.7902616638687</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>368.4973157021125</v>
       </c>
     </row>
   </sheetData>
@@ -9565,10 +9567,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N24" t="n">
-        <v>407.152590549595</v>
-      </c>
       <c r="O24" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9799,13 +9801,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>312.7888501519116</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9878,22 +9880,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O27" t="n">
         <v>424.2958575201043</v>
@@ -9972,10 +9974,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10039,10 +10041,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10115,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q29" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -10370,7 +10372,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N33" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>424.2958575201044</v>
@@ -10449,7 +10451,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10513,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>409.401749030468</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O36" t="n">
         <v>424.2958575201043</v>
@@ -10683,10 +10685,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q36" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,16 +10746,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10826,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O38" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,10 +10913,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P39" t="n">
         <v>424.2958575201044</v>
@@ -10923,7 +10925,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11145,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N42" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O42" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11306,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11461,19 +11463,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>14.56796726996961</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24136,7 +24138,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.60968125113078</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>43.40600239069244</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C25" t="n">
-        <v>78.60497479581491</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -24415,10 +24417,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24446,16 +24448,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>26.38000651414922</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -24497,10 +24499,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>171.4075119270331</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>86.61873824943252</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.64395877249353</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24680,16 +24682,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>27.68637965798899</v>
       </c>
       <c r="E29" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>49.86896399117649</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24743,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -24844,7 +24846,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>61.99778706130385</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24917,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>329.7284710573622</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24974,16 +24976,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25078,16 +25080,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.87734684739507</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>11.70025223624319</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>27.51708619436954</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25217,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>40.52414525755449</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25315,7 +25317,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>73.35180500668227</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25369,10 +25371,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>178.4387325057611</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C38" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -25454,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>38.97196474272886</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>122.6735968424642</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25600,22 +25602,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>164.8360278408509</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>76.93205995193324</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25682,16 +25684,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>38.26486251750879</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -25795,7 +25797,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>33.63230540015951</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25877,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>294.798614807625</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26032,10 +26034,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>7.667235092792907</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26074,19 +26076,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372627.246442428</v>
+        <v>372627.2464424279</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372627.246442428</v>
+        <v>372627.2464424278</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>372627.246442428</v>
+        <v>372627.2464424279</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>372627.246442428</v>
       </c>
     </row>
   </sheetData>
@@ -26329,19 +26331,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
+        <v>48080.9350248294</v>
+      </c>
+      <c r="I2" t="n">
         <v>48080.93502482941</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48080.9350248294</v>
       </c>
       <c r="J2" t="n">
         <v>48080.9350248294</v>
       </c>
       <c r="K2" t="n">
-        <v>48080.9350248294</v>
+        <v>48080.93502482941</v>
       </c>
       <c r="L2" t="n">
-        <v>48080.9350248294</v>
+        <v>48080.93502482941</v>
       </c>
       <c r="M2" t="n">
         <v>48080.9350248294</v>
@@ -26353,7 +26355,7 @@
         <v>48080.93502482941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>48080.9350248294</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>100292.5090254571</v>
       </c>
     </row>
     <row r="4">
@@ -26445,19 +26447,19 @@
         <v>367.9287957210698</v>
       </c>
       <c r="L4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="M4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287957210698</v>
+        <v>367.9287957210699</v>
       </c>
       <c r="O4" t="n">
         <v>367.9287957210698</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>367.9287957210698</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26546,7 +26548,7 @@
         <v>21915.81809188599</v>
       </c>
       <c r="K6" t="n">
-        <v>21915.81809188599</v>
+        <v>21915.818091886</v>
       </c>
       <c r="L6" t="n">
         <v>21915.81809188599</v>
@@ -26558,10 +26560,10 @@
         <v>21915.81809188599</v>
       </c>
       <c r="O6" t="n">
-        <v>21915.81809188599</v>
+        <v>21915.818091886</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-78376.69093357114</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -36285,10 +36287,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="N22" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N24" t="n">
-        <v>407.152590549595</v>
-      </c>
       <c r="O24" t="n">
+        <v>288.7962490401609</v>
+      </c>
+      <c r="P24" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,13 +36521,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N25" t="n">
-        <v>312.7888501519116</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -36598,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N26" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O27" t="n">
         <v>424.2958575201043</v>
@@ -36692,10 +36694,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q27" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,10 +36761,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36835,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
+        <v>407.1525905495951</v>
+      </c>
+      <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q29" t="n">
-        <v>236.2898988798406</v>
-      </c>
       <c r="R29" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="O30" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P30" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,22 +36995,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>310.9272166398487</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>236.2898988798406</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -37090,7 +37092,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="N33" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>424.2958575201044</v>
@@ -37169,7 +37171,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,16 +37235,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>409.401749030468</v>
+        <v>58.38468441396117</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O36" t="n">
         <v>424.2958575201043</v>
@@ -37403,10 +37405,10 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q36" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O38" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O39" t="n">
-        <v>424.2958575201043</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="P39" t="n">
         <v>424.2958575201044</v>
@@ -37643,7 +37645,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>223.4729892007681</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -37865,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N42" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O42" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O43" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38183,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-83643.15931633233</v>
+        <v>-92779.76457537734</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29520662.93214757</v>
+        <v>28907448.27261248</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14696419.30559702</v>
+        <v>14095407.61778665</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2277237.114178152</v>
+        <v>2583509.54874628</v>
       </c>
     </row>
     <row r="11">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>37.28016130075125</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>86.50550313119824</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>51.69293615417358</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
         <v>128.8768572327044</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2681271316377</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>124.8540412641284</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>386.0309950025953</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>15.43611296341605</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T24" t="n">
         <v>128.8768572327044</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30.45293362309707</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,10 +2541,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>232.79575053631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T27" t="n">
         <v>128.8768572327044</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>84.21735615217479</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2724,10 +2724,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>13.23277709302266</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2772,16 +2772,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>403.8643073193109</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>182.3947886021471</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>106.0626366504663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>229.8635849988177</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>67.65538200560648</v>
+        <v>38.92507044044334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T33" t="n">
         <v>128.8768572327044</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>52.84434288970321</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.2375848836785</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3271,13 +3271,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="X35" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>27.74801462935485</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>105.6472205425128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>13.23277709302266</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>60.30944613818192</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>320.4517931110355</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>122.5739972431868</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>141.3076780977018</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>67.1472537942084</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>424.2958575201043</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>102.5852382553438</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4033,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>296.16952369695</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>156.2681271316377</v>
+        <v>158.9725432342815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>789.3122260077412</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>360.7305517450095</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>765.256118292778</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>592.6944067760029</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>426.8164139775256</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>957.0747370117651</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.183430080417</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.974446717864</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>487.5565870027622</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>86.15875562602611</v>
       </c>
       <c r="H20" t="n">
         <v>33.94366860160834</v>
@@ -5788,16 +5788,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>915.4240165935545</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K21" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L21" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M21" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N21" t="n">
         <v>319.8519551513677</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>368.4973157021125</v>
+        <v>679.0856311019793</v>
       </c>
       <c r="C22" t="n">
-        <v>210.6507226398521</v>
+        <v>506.5239195852042</v>
       </c>
       <c r="D22" t="n">
-        <v>210.6507226398521</v>
+        <v>506.5239195852042</v>
       </c>
       <c r="E22" t="n">
-        <v>210.6507226398521</v>
+        <v>336.7659158359415</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>160.0588617976977</v>
       </c>
       <c r="G22" t="n">
         <v>33.94366860160834</v>
@@ -5910,16 +5910,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L22" t="n">
-        <v>452.1535503695694</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M22" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N22" t="n">
         <v>761.8145120199619</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>870.9042498209665</v>
       </c>
       <c r="Y22" t="n">
-        <v>368.4973157021125</v>
+        <v>870.9042498209665</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>851.7413961748201</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="C23" t="n">
-        <v>851.7413961748201</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="D23" t="n">
-        <v>851.7413961748201</v>
+        <v>905.9848057515121</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>477.4031314887804</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>49.53570189798819</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>49.53570189798819</v>
       </c>
       <c r="H23" t="n">
         <v>33.94366860160834</v>
@@ -6025,16 +6025,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X23" t="n">
-        <v>1278.040966659728</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="Y23" t="n">
-        <v>1278.040966659728</v>
+        <v>1334.566480014244</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,34 +6056,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.94366860160834</v>
+        <v>241.4112616530815</v>
       </c>
       <c r="C25" t="n">
-        <v>33.94366860160834</v>
+        <v>241.4112616530815</v>
       </c>
       <c r="D25" t="n">
-        <v>33.94366860160834</v>
+        <v>241.4112616530815</v>
       </c>
       <c r="E25" t="n">
-        <v>33.94366860160834</v>
+        <v>241.4112616530815</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>64.70420761483771</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6147,16 +6147,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L25" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M25" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N25" t="n">
         <v>761.8145120199619</v>
@@ -6171,28 +6171,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T25" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V25" t="n">
-        <v>885.9154747824084</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W25" t="n">
-        <v>613.8890703687</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X25" t="n">
-        <v>368.4973157021125</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.0776450162207</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>435.3414999783445</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C26" t="n">
-        <v>435.3414999783445</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6232,19 +6232,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
+        <v>267.8706684926505</v>
+      </c>
+      <c r="O26" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P26" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1075.344177331261</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>670.4887227422939</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X26" t="n">
-        <v>670.4887227422939</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y26" t="n">
-        <v>435.3414999783445</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.6477016666967</v>
+        <v>732.2148722124709</v>
       </c>
       <c r="C28" t="n">
-        <v>369.5796651493484</v>
+        <v>559.6531606956959</v>
       </c>
       <c r="D28" t="n">
-        <v>203.7016723508711</v>
+        <v>393.7751678972186</v>
       </c>
       <c r="E28" t="n">
-        <v>33.94366860160834</v>
+        <v>224.0171641479558</v>
       </c>
       <c r="F28" t="n">
-        <v>33.94366860160834</v>
+        <v>47.31011010971204</v>
       </c>
       <c r="G28" t="n">
         <v>33.94366860160834</v>
@@ -6384,52 +6384,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7021231727439</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L28" t="n">
-        <v>726.9120049407049</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M28" t="n">
-        <v>930.0072868842942</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N28" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U28" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V28" t="n">
-        <v>726.6741060804052</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W28" t="n">
-        <v>454.6477016666967</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X28" t="n">
-        <v>454.6477016666967</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="Y28" t="n">
-        <v>454.6477016666967</v>
+        <v>924.0334909314581</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>869.7548429593813</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C29" t="n">
-        <v>869.7548429593813</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D29" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6469,22 +6469,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N29" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O29" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P29" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q29" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R29" t="n">
         <v>1697.183430080417</v>
@@ -6493,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1512.946269876228</v>
       </c>
       <c r="U29" t="n">
-        <v>1697.183430080417</v>
+        <v>1253.723967193245</v>
       </c>
       <c r="V29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.183430080417</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="X29" t="n">
-        <v>1278.040966659728</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="Y29" t="n">
-        <v>869.7548429593813</v>
+        <v>891.1070171270717</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6542,22 +6542,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L30" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.0776450162207</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C31" t="n">
-        <v>141.0776450162207</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D31" t="n">
-        <v>141.0776450162207</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E31" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F31" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
         <v>33.94366860160834</v>
@@ -6621,52 +6621,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M31" t="n">
-        <v>872.2064493144727</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N31" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.870982911978</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="V31" t="n">
-        <v>885.9154747824084</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="W31" t="n">
-        <v>613.8890703687</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="X31" t="n">
-        <v>368.4973157021125</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.0776450162207</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.2824383042412</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="C32" t="n">
-        <v>102.2824383042412</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="D32" t="n">
-        <v>102.2824383042412</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="E32" t="n">
-        <v>102.2824383042412</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="F32" t="n">
-        <v>102.2824383042412</v>
+        <v>73.26192157175313</v>
       </c>
       <c r="G32" t="n">
         <v>33.94366860160834</v>
@@ -6712,16 +6712,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N32" t="n">
-        <v>437.0247332457074</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O32" t="n">
-        <v>857.0776321906106</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q32" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
@@ -6742,10 +6742,10 @@
         <v>929.7110254252771</v>
       </c>
       <c r="X32" t="n">
-        <v>510.5685620045878</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.2824383042412</v>
+        <v>929.7110254252771</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6779,28 +6779,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J33" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K33" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L33" t="n">
-        <v>33.94366860160834</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M33" t="n">
-        <v>437.0247332457074</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N33" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O33" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P33" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q33" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R33" t="n">
         <v>1697.183430080417</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.8779941617646</v>
+        <v>765.256118292778</v>
       </c>
       <c r="C34" t="n">
         <v>711.8779941617646</v>
@@ -6858,52 +6858,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M34" t="n">
-        <v>509.954387939391</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N34" t="n">
-        <v>930.0072868842942</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S34" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T34" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U34" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V34" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W34" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="X34" t="n">
-        <v>939.2976648476563</v>
+        <v>1184.494407697657</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.8779941617646</v>
+        <v>957.0747370117651</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1318.974446717864</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C35" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D35" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6946,7 +6946,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M35" t="n">
-        <v>267.8706684926505</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N35" t="n">
         <v>267.8706684926505</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X35" t="n">
-        <v>1318.974446717864</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y35" t="n">
-        <v>1318.974446717864</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,34 +7004,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I36" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J36" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K36" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>685.9021756729128</v>
+        <v>912.4680032839485</v>
       </c>
       <c r="C37" t="n">
-        <v>685.9021756729128</v>
+        <v>739.9062917671735</v>
       </c>
       <c r="D37" t="n">
-        <v>685.9021756729128</v>
+        <v>574.0282989686962</v>
       </c>
       <c r="E37" t="n">
-        <v>516.14417192365</v>
+        <v>404.2702952194334</v>
       </c>
       <c r="F37" t="n">
-        <v>339.4371178854062</v>
+        <v>227.5632411811896</v>
       </c>
       <c r="G37" t="n">
-        <v>173.8458429112338</v>
+        <v>61.97196620701729</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7095,16 +7095,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L37" t="n">
         <v>341.7616130750586</v>
       </c>
       <c r="M37" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N37" t="n">
         <v>761.8145120199619</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V37" t="n">
-        <v>1185.348250772513</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="W37" t="n">
-        <v>913.3218463588046</v>
+        <v>1157.859757950536</v>
       </c>
       <c r="X37" t="n">
-        <v>913.3218463588046</v>
+        <v>912.4680032839485</v>
       </c>
       <c r="Y37" t="n">
-        <v>685.9021756729128</v>
+        <v>912.4680032839485</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1318.974446717864</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C38" t="n">
-        <v>890.3927724551322</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D38" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E38" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7180,46 +7180,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M38" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N38" t="n">
-        <v>1294.102365436318</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O38" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P38" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q38" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y38" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7253,22 +7253,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J39" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K39" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L39" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.97043790589</v>
+        <v>732.2148722124709</v>
       </c>
       <c r="C40" t="n">
-        <v>380.4087263891149</v>
+        <v>559.6531606956959</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4087263891149</v>
+        <v>393.7751678972186</v>
       </c>
       <c r="E40" t="n">
-        <v>210.6507226398521</v>
+        <v>224.0171641479558</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>47.31011010971204</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7335,13 +7335,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>726.9120049407049</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M40" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N40" t="n">
         <v>761.8145120199619</v>
@@ -7356,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V40" t="n">
-        <v>885.9154747824084</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W40" t="n">
-        <v>613.8890703687</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X40" t="n">
-        <v>613.8890703687</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="Y40" t="n">
-        <v>552.97043790589</v>
+        <v>924.0334909314581</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1075.344177331261</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="C41" t="n">
-        <v>646.762503068529</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D41" t="n">
-        <v>646.762503068529</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E41" t="n">
-        <v>646.762503068529</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F41" t="n">
-        <v>646.762503068529</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G41" t="n">
         <v>323.0738231583921</v>
@@ -7444,19 +7444,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1075.344177331261</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X41" t="n">
-        <v>1075.344177331261</v>
+        <v>873.1855120707613</v>
       </c>
       <c r="Y41" t="n">
-        <v>1075.344177331261</v>
+        <v>749.3733936432999</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7490,28 +7490,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J42" t="n">
-        <v>33.94366860160834</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K42" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L42" t="n">
-        <v>33.94366860160834</v>
+        <v>778.554892512724</v>
       </c>
       <c r="M42" t="n">
-        <v>453.9965675465116</v>
+        <v>778.554892512724</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0494664914149</v>
+        <v>778.554892512724</v>
       </c>
       <c r="O42" t="n">
-        <v>1294.102365436318</v>
+        <v>778.554892512724</v>
       </c>
       <c r="P42" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q42" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R42" t="n">
         <v>1697.183430080417</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.6786969831253</v>
+        <v>786.673939587406</v>
       </c>
       <c r="C43" t="n">
-        <v>176.6786969831253</v>
+        <v>614.112228070631</v>
       </c>
       <c r="D43" t="n">
-        <v>176.6786969831253</v>
+        <v>448.2342352721537</v>
       </c>
       <c r="E43" t="n">
-        <v>176.6786969831253</v>
+        <v>278.4762315228909</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>101.7691774846471</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7569,16 +7569,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>33.94366860160834</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M43" t="n">
-        <v>341.7616130750586</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N43" t="n">
         <v>761.8145120199619</v>
@@ -7602,19 +7602,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W43" t="n">
-        <v>613.8890703687</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="X43" t="n">
-        <v>368.4973157021125</v>
+        <v>1205.912228992285</v>
       </c>
       <c r="Y43" t="n">
-        <v>368.4973157021125</v>
+        <v>978.4925583063932</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>855.2769502042993</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C44" t="n">
-        <v>426.6952759415676</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D44" t="n">
-        <v>426.6952759415676</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6952759415676</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F44" t="n">
-        <v>426.6952759415676</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G44" t="n">
         <v>323.0738231583921</v>
@@ -7660,13 +7660,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O44" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7681,19 +7681,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1217.893900270473</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V44" t="n">
-        <v>855.2769502042993</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W44" t="n">
-        <v>855.2769502042993</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X44" t="n">
-        <v>855.2769502042993</v>
+        <v>1177.955067906032</v>
       </c>
       <c r="Y44" t="n">
-        <v>855.2769502042993</v>
+        <v>1177.955067906032</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D45" t="n">
         <v>338.5686635760967</v>
@@ -7715,10 +7715,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
@@ -7727,16 +7727,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K45" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L45" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M45" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N45" t="n">
         <v>319.8519551513677</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>368.4973157021125</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="C46" t="n">
-        <v>368.4973157021125</v>
+        <v>706.8650456868664</v>
       </c>
       <c r="D46" t="n">
-        <v>368.4973157021125</v>
+        <v>540.9870528883891</v>
       </c>
       <c r="E46" t="n">
-        <v>368.4973157021125</v>
+        <v>371.2290491391264</v>
       </c>
       <c r="F46" t="n">
-        <v>191.7902616638687</v>
+        <v>194.5219951008826</v>
       </c>
       <c r="G46" t="n">
         <v>33.94366860160834</v>
@@ -7806,16 +7806,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L46" t="n">
-        <v>33.94366860160834</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M46" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N46" t="n">
         <v>761.8145120199619</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X46" t="n">
-        <v>368.4973157021125</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="Y46" t="n">
-        <v>368.4973157021125</v>
+        <v>879.4267572036415</v>
       </c>
     </row>
   </sheetData>
@@ -9175,19 +9175,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.2958575201043</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>312.7888501519116</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N25" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9880,22 +9880,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,25 +10117,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M29" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,25 +10190,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>407.152590549595</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -10372,7 +10372,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M34" t="n">
-        <v>58.38468441396117</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -10661,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L37" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O38" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10983,16 +10983,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.25505765581499</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11138,31 +11138,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="Q42" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P42" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M43" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
         <v>424.2958575201043</v>
@@ -11317,7 +11317,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.2958575201043</v>
@@ -11454,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N46" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>360.1036917622175</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23785,10 +23785,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>81.55492058057187</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -23955,10 +23955,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>59.33415455948301</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>234.5459168570423</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24028,13 +24028,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>14.56796726996961</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>39.08132096030216</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>43.40600239069244</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>270.8027400477998</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24265,13 +24265,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24375,10 +24375,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>133.4824286013335</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>413.9911649110686</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>171.4075119270331</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>86.61873824943252</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>150.7025851314079</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>27.68637965798899</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24733,22 +24733,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>35.4717662535447</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>61.99778706130385</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.5570669585116</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>329.7284710573622</v>
+        <v>358.4587826225254</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>117.9917515119041</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -25140,7 +25140,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>11.70025223624319</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>94.7981638545188</v>
       </c>
       <c r="X35" t="n">
-        <v>40.52414525755449</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,10 +25314,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>110.7551379371744</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>178.4387325057611</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.60968125113078</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>150.7025851314079</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.8360278408509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,7 +25642,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>76.93205995193324</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>281.6292652201563</v>
       </c>
     </row>
     <row r="42">
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>33.63230540015951</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>96.78810843022221</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>9.465190568306582</v>
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>294.798614807625</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>118.7815150895324</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,19 +26025,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.667235092792907</v>
+        <v>4.962818990149117</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>372627.246442428</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>372627.2464424279</v>
+        <v>372627.246442428</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>372627.2464424278</v>
+        <v>372627.246442428</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>372627.246442428</v>
+        <v>372627.2464424279</v>
       </c>
     </row>
   </sheetData>
@@ -26328,10 +26328,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>48080.9350248294</v>
       </c>
       <c r="H2" t="n">
-        <v>48080.9350248294</v>
+        <v>48080.93502482941</v>
       </c>
       <c r="I2" t="n">
         <v>48080.93502482941</v>
@@ -26340,13 +26340,13 @@
         <v>48080.9350248294</v>
       </c>
       <c r="K2" t="n">
-        <v>48080.93502482941</v>
+        <v>48080.93502482939</v>
       </c>
       <c r="L2" t="n">
         <v>48080.93502482941</v>
       </c>
       <c r="M2" t="n">
-        <v>48080.9350248294</v>
+        <v>48080.93502482941</v>
       </c>
       <c r="N2" t="n">
         <v>48080.9350248294</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>116293.1301083978</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>102107.2224080706</v>
       </c>
       <c r="P3" t="n">
-        <v>100292.5090254571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="H4" t="n">
         <v>367.9287957210698</v>
@@ -26453,7 +26453,7 @@
         <v>367.9287957210698</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287957210699</v>
+        <v>367.9287957210698</v>
       </c>
       <c r="O4" t="n">
         <v>367.9287957210698</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
         <v>25797.18813722234</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-95116.66862842751</v>
       </c>
       <c r="H6" t="n">
-        <v>-92563.02292975585</v>
+        <v>21176.46147997034</v>
       </c>
       <c r="I6" t="n">
-        <v>21915.81809188599</v>
+        <v>21176.46147997034</v>
       </c>
       <c r="J6" t="n">
-        <v>21915.81809188599</v>
+        <v>21176.46147997033</v>
       </c>
       <c r="K6" t="n">
-        <v>21915.818091886</v>
+        <v>21176.46147997033</v>
       </c>
       <c r="L6" t="n">
-        <v>21915.81809188599</v>
+        <v>21176.46147997034</v>
       </c>
       <c r="M6" t="n">
-        <v>21915.81809188599</v>
+        <v>21176.46147997034</v>
       </c>
       <c r="N6" t="n">
-        <v>21915.81809188599</v>
+        <v>21176.46147997033</v>
       </c>
       <c r="O6" t="n">
-        <v>21915.818091886</v>
+        <v>-80930.7609281003</v>
       </c>
       <c r="P6" t="n">
-        <v>-78376.69093357114</v>
+        <v>21176.46147997033</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
         <v>424.2958575201043</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35895,19 +35895,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -36053,16 +36053,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.2958575201043</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>312.7888501519116</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N25" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -36600,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>205.1467494379689</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -36773,7 +36773,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M29" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="N31" t="n">
-        <v>409.401749030468</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>407.152590549595</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O32" t="n">
         <v>424.2958575201043</v>
@@ -37092,7 +37092,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M34" t="n">
-        <v>58.38468441396117</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -37247,7 +37247,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>424.2958575201043</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L37" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -37548,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M38" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O38" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.25505765581499</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>385.2554146752024</v>
+      </c>
+      <c r="Q42" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P42" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M43" t="n">
-        <v>310.9272166398487</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
         <v>424.2958575201043</v>
@@ -38037,7 +38037,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>424.2958575201043</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N46" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
